--- a/excel/Detail Design Fixed Weight.xlsx
+++ b/excel/Detail Design Fixed Weight.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>DD ID</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>MS01-70-271</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>zinc</t>
   </si>
 </sst>
 </file>
@@ -120,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -129,6 +135,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C20"/>
+  <dimension ref="B2:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C18"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,147 +449,170 @@
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2">
         <v>25.4</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="2">
         <v>6.64</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2">
         <v>3.22</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="2">
         <v>1.72</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2">
         <v>1.98</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="2">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="2">
         <v>2.73</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="2">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>

--- a/excel/Detail Design Fixed Weight.xlsx
+++ b/excel/Detail Design Fixed Weight.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -72,22 +72,31 @@
     <t>MS01-70-271</t>
   </si>
   <si>
+    <t>Zinc Plated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>color</t>
-  </si>
-  <si>
-    <t>zinc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -138,7 +147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -151,7 +160,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -225,7 +234,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -260,7 +268,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -436,20 +443,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -457,10 +465,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -469,7 +477,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -478,7 +486,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -487,7 +495,7 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4">
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -495,10 +503,10 @@
         <v>0.5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
@@ -507,7 +515,7 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4">
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
@@ -516,7 +524,7 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4">
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -525,7 +533,7 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4">
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
@@ -534,7 +542,7 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4">
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
@@ -543,7 +551,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4">
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
@@ -552,7 +560,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4">
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
@@ -561,7 +569,7 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4">
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
@@ -569,10 +577,10 @@
         <v>3.3</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
@@ -581,7 +589,7 @@
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -590,7 +598,7 @@
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4">
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
@@ -599,7 +607,7 @@
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4">
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
@@ -608,11 +616,11 @@
       </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
@@ -620,30 +628,33 @@
   <sortState ref="B3:C15">
     <sortCondition ref="B2"/>
   </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>